--- a/medicine/Pharmacie/1781_en_santé_et_médecine/1781_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1781_en_santé_et_médecine/1781_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1781_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1781_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1781 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1781_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1781_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1781-1782, près de 30 000 personnes meurent dans le Languedoc d’une sévère épidémie de suette miliaire[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1781-1782, près de 30 000 personnes meurent dans le Languedoc d’une sévère épidémie de suette miliaire.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1781_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1781_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>9 février : Johann Baptist von Spix (mort en 1826), médecin, zoologiste et explorateur allemand.
-17 février : René-Théophile-Marie-Hyacinthe Laennec ou Laënnec, plus connu sous le nom de René Laennec, (mort le 13 août 1826 (à 45 ans) de la tuberculose[2] à Douarnenez dans son manoir de Ploaré), médecin français, créateur du diagnostic médical par auscultation (Traité de l'auscultation médiate, 1819) grâce à l'invention du stéthoscope.
+17 février : René-Théophile-Marie-Hyacinthe Laennec ou Laënnec, plus connu sous le nom de René Laennec, (mort le 13 août 1826 (à 45 ans) de la tuberculose à Douarnenez dans son manoir de Ploaré), médecin français, créateur du diagnostic médical par auscultation (Traité de l'auscultation médiate, 1819) grâce à l'invention du stéthoscope.
 23 août : Friedrich Tiedemann (mort en 1861), médecin anatomiste et physiologiste allemand.
 17 octobre : Johann Friedrich Meckel (mort en 1833), médecin anatomiste allemand.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1781_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1781_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>21 janvier : William Lewis (né en 1714), chimiste et médecin anglais.</t>
         </is>
